--- a/April 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_April.xlsx
+++ b/April 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_April.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\March 2018\Saturday-Sunday-Weekday\Validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\April 2018\Saturday_Sunday_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3C7837-6D3C-47E5-A448-6A982C792350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{381523E1-6811-4E3B-87DB-1CD213DB6118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{F9A7E4CB-A2D7-4FDE-BBDF-76290356CCEC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{63546F56-04D9-418E-8E9B-2C8DAE419595}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FF9B76-BEDD-4DD6-8D3F-2A8434D9B26C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8C17B4-6148-4EC7-9C14-31523E6F4969}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1521,53 +1521,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{13C35096-57E5-487E-8A79-3A2334AA8E87}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{23EAFE46-9880-4C24-B7DC-DF3BEB1F2BA2}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{A298A353-F33D-42FB-B129-B4E416E10F06}"/>
-    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{C05F4F4B-A77A-4099-A865-3D2D31D85E15}"/>
-    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{D86690D5-7842-43B8-9A13-E99D1A0AABA4}"/>
-    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{087486B5-5DC3-4B5A-A4A2-5C9C0CE740C2}"/>
-    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{887B2B23-E8EA-4966-BB79-C54055937390}"/>
-    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{2E6B4FFC-88D3-4D0E-BA6F-A0F46F6ADD89}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{485FE4F2-387D-46C5-A11A-6AA33FC16FA6}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{7F9D38D8-5FF1-4C9D-B3E0-6DEB594BEB76}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{B2F96404-9B52-44DF-A6BD-69C3039CA5F2}"/>
-    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{AAC1156A-8F62-48B3-AA17-2CFC514C6C84}"/>
-    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{FDEE3535-33ED-4A3F-BC8B-E7C4F672E62A}"/>
-    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{68D9BAF4-B162-43BD-BF7E-59254F839755}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{776B3C5D-2B1F-4470-B9B0-2DF2F08250F8}"/>
-    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{05C9406A-7C91-4671-A66A-959BB0E5BC54}"/>
-    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{9390FC1B-BB29-4C69-8066-BEC8DF56C2C6}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{C6F9BC66-0073-4178-A788-9316C1C254A7}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{12FE2177-02D8-4A2A-8410-8CB76C3CD1CB}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{A750EA99-EC03-48B5-87C4-67F263F53662}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{70F09E35-0C57-4DEA-9988-85943D03604B}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{32BF815F-B6EB-45DC-B7CC-0800F1006F8B}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{4430C738-4C0F-4EF1-9B00-09852A4F95FA}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{B248CBAD-BE28-4604-8536-28AF61F7000F}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{B87580A8-826B-405A-9E4B-8ABE6D8EF78F}"/>
-    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{4D9A6069-4BB0-4ABB-82C6-BB4A0D785A1D}"/>
-    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{B16E7065-B299-410A-8956-4FB14E03268E}"/>
-    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{DC0BC7B1-DC3E-41F0-B4A8-01A6D0B6C188}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{A297C578-B625-423E-A911-B7E0EF8A942D}"/>
-    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{F996D128-A095-49D3-96E7-2A6F9B711A75}"/>
-    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{29DC5324-FFD5-4E12-B3F0-DB5DE35AD439}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{3E6AA8A0-BD1F-4DC8-AFFC-6420FB5A75C1}"/>
-    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{CB5000EF-228F-4EA7-98A2-7959A16CEE87}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{3BCD7607-7842-44B3-963F-FDAB71055577}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{A70BEE19-50F1-424A-AFC3-12128EC86EFC}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{592B3E99-D94C-4652-AA82-4856B09DE70C}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{ACC5A381-859E-480D-8488-E7C92440556F}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{D146F183-12C8-4D0A-975B-51F71E55C506}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{CE4CED52-D2A1-4613-BF51-1998E4F87F4F}"/>
-    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{6C115916-723A-47F5-B72A-E60F80AD6F9C}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{219B65BD-D3A0-481B-9D2F-98A62CCB91BA}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{AE99549C-43D4-4AF6-B826-F00CA25B4D30}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{97B5F1AB-4319-4FE7-9CEB-C47F425E39BF}"/>
+    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{D5FA4DBE-61B7-4817-85C0-D340ADCE2DAD}"/>
+    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{07356876-B314-443E-9E02-913070EDD1ED}"/>
+    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{017D3AFE-44E9-4C71-9A41-1B3F4A3B16BB}"/>
+    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{011D0D4C-114D-4411-B17E-2F1811675E4B}"/>
+    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{A58456CA-3858-4C97-9CA4-6328722894ED}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{1D68470C-0913-4E2B-9CF2-60299C2BC3E2}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{E93A7A21-4104-4136-A5D3-99D6BAC96CD2}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{32AE1E9C-5613-408A-A87A-83F12E73825D}"/>
+    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{A0B34C6D-3C03-4102-AB69-7BA99F34BB4B}"/>
+    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{674FAAA0-1C26-48EB-A7C2-F76B729A096F}"/>
+    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{C1348F26-DCD9-4C70-AB35-B7A7DAF71BB6}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{E416A1C5-01EB-4674-A9B3-A25D6F99195D}"/>
+    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{70F1605F-196D-4D5E-B730-44F9CE32D36A}"/>
+    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{B350734A-8525-45EA-BF2C-EC2D5B839BBE}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{22C9A521-DC0F-4489-80B0-5B9F7DFAB29B}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{86634B40-2BFC-4D42-BF76-F044DA738D72}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{113386DF-F819-4C96-8C87-A22F0E52626A}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{F71AB0C8-8F64-4146-B1C3-99D8061B06F7}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{D06E6086-1288-4CB8-9D0C-50A6D59F30AF}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{A35608F5-4AFB-4506-8833-6E381A40A1FE}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{6FFABBEA-00C7-4FE4-81A0-45D280BE0AD0}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{D361F8CA-3A10-4A71-8E7A-34140472C245}"/>
+    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{585CED8B-58B9-46C8-8D3D-61FEF3F95338}"/>
+    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{2C4A3E3E-3A0F-4003-B710-423D31924F83}"/>
+    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{76EDC0AA-6E85-4D29-8CE5-EF57E2D92371}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{5277753F-A56C-44A8-B211-980784486371}"/>
+    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{4FCAE66A-C98E-46BA-8F35-62786E1B09DA}"/>
+    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{15DED206-07BA-42C0-B2BC-023F776A9F7F}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{478E801B-F0BE-4379-A72E-435F394D2650}"/>
+    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{D12134E5-94EA-465D-8682-B5AC8E1CAE43}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{523ECD7D-13A8-4A3B-BD1D-F3B49E2E1FBA}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{2BC17C02-AA09-48C7-9D1D-4611565AE827}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{C483BFCA-1558-4803-95CF-2DBD84DE9A77}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{DE0BCF0D-481A-4391-BF87-B3B56310CB72}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{4084697E-4213-4682-B6E4-62A60A319A30}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{0E57CC79-E7C3-47AC-99AB-716C39C87D3D}"/>
+    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{8CC13F82-352F-4F7C-ADF9-F7B458CC450E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D55BAB-0EF0-490E-8377-2E51DF25E8FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA232769-A3E0-471D-9A5C-8B6AD09B3F0A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,16 +1662,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{C05C23EE-ACBC-49F4-99F3-EE73A6B74422}"/>
+  <autoFilter ref="A3:E6" xr:uid="{E637F12C-D081-4012-95C5-42715591AA6E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{85A2EC23-14AC-48FA-B1DB-39E07A13D352}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{55A4D6FB-31AC-4B3C-B638-F2831782685A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3A9406-8961-466F-B752-5DE034370C9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48124A4-6012-4919-8A82-EFEAC9761C67}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1766,16 +1766,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{CB080F2B-D732-4CA4-9E4A-8D9F88FCF675}"/>
+  <autoFilter ref="A3:E6" xr:uid="{09F01A1B-088A-44C2-81B0-7481FC0D0064}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8197DAC4-7594-43C2-8ED9-39579B1C9C1C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{22B67E45-56ED-4D91-A09A-89BC28E43478}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48D5FF-325C-42B8-943A-76018DD6BB61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58776394-A4B1-4E64-92FD-B610894AF5A1}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1942,16 +1942,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{0AFCBFE4-0DCB-42AB-A25E-4347ADA51E6B}"/>
+  <autoFilter ref="A3:F9" xr:uid="{5D1F129B-C11B-407C-AF02-735B92015C0B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EAAE1CFD-88F0-4271-A8E5-ED4367CA04E5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A5283C3A-6AD8-4C7E-A58C-0804E66472DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7679A9B-45F3-47BF-974D-FF584B94E63F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014610D-AD81-4721-A2CE-33ACCEC22C45}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2002,16 +2002,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{D81AC11E-F86C-484E-8F17-EACB19B9D9B0}"/>
+  <autoFilter ref="A3:B5" xr:uid="{59CD9A2A-F6F0-4647-855D-C6821F13C8CC}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2190A49B-65B3-455C-8C89-C6596B857B78}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FA79AAF1-64DC-41F8-9FFC-BB441349C0A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BCDCE2-619B-4AA1-A9A3-DF4DE7AD870E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555C04E-3BA8-4C30-AE8C-0BB19F71F8C5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,16 +2059,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{2D09402F-6068-4580-A3D7-FC0B0F03BC96}"/>
+  <autoFilter ref="A3:A5" xr:uid="{66A587F6-4979-4644-8617-4E576153BFF6}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5C3BD63B-F2FD-4DDC-A8A7-9FA7798DB2B0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2467CD9B-2FC4-4F63-91A6-6454471B7E08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9BB1DC-18E4-4272-AB28-946135304790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA41772-CDC2-4562-B560-74A3A5512F02}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,16 +2127,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B6" xr:uid="{3BEEBA8D-704C-48FA-9DBF-8ACBC3CE63F0}"/>
+  <autoFilter ref="A3:B6" xr:uid="{97D97852-FD83-445E-8CF4-3DECFB0B91DD}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E491189A-2998-4AFF-83A3-2D7368FC00DF}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7EAEEEF2-17C7-46C2-BBE5-253865EE74E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544D354E-42D6-4E82-9FE7-943D79668615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9BC3-0294-4AE2-9661-5BED931F30C9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2240,16 +2240,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{36FBD9EE-D7A5-41ED-94C9-A27E2A3A9502}"/>
+  <autoFilter ref="A3:C9" xr:uid="{A2D391E7-3156-4F9F-BD38-5F29D4C403F9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9785B3C5-AA02-4B9D-BF23-1685AA323F04}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{733DD216-D43E-481A-806E-1CD3A3B405C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C51C5EE-1A2A-4D12-964E-171784F920DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118B5A0E-B0F5-4C68-946D-97DDEABA3A1D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,16 +2297,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{907B2B48-F9B5-4621-AADF-2977D736B5B0}"/>
+  <autoFilter ref="A3:A5" xr:uid="{B0407259-F093-4291-83BB-92326AA9AD33}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D4A1C017-D458-452C-82DD-D9D16113EF53}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A5DEFA0F-5134-41A5-983C-9B8210641CA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB3C40-0EE4-4F37-AA03-73299BD40206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0968F5-9260-429F-9C17-1CF0DBBBE363}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2410,16 +2410,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{7CD6A06B-D935-41F0-9756-B4DE78C3C79F}"/>
+  <autoFilter ref="A3:C9" xr:uid="{2951D82E-3D1F-409D-8DF0-62840042C1DE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B2323A69-D694-49DB-AF83-AFA639EC124D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A7870287-5267-4812-B15E-6461E6CB2969}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB4AF63-7E60-49D9-BC3E-27A3B3B8F4AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD6FF1-BD6D-4D2E-828C-8F883F3BE4A9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{4F346281-6F70-4E40-B4F8-F734517C5481}"/>
+  <autoFilter ref="A3:C9" xr:uid="{782F01E1-29EE-49D8-A428-611C59EFF166}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{003AC4AD-5DC7-438F-8FBC-4EE189DC37D4}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DF788574-8F2C-42FE-A623-878551D22785}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AE11E7-76F7-4159-88C6-D6D6DC1C2181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECFFD93-43CA-415A-8C70-B224DBF4C3E5}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>13448767.310860481</v>
+        <v>15805642.395899361</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -2922,14 +2922,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A67A8CCF-E65B-463B-AFAF-863DBA648EC3}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C25F4C3A-0306-4E44-AD53-AC8C2271D5DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA05B0E-336B-4790-9DB5-C419CA75EE2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F59399-6C3C-495A-B97A-F6EF8D8DD8C6}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,16 +2976,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{D6F3A8DD-15F6-4E42-9A05-5291F7919469}"/>
+  <autoFilter ref="A3:A6" xr:uid="{0FB9CBCB-039B-4686-A189-B681FEA05CAC}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9221818E-0DBF-48E6-A806-8552CABAD957}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4AC2F15F-DC9E-4259-8C8B-4559E2197B76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A356004-F604-49EF-BEC1-8D05824871FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948D3996-108F-4223-96F0-77A4E6CF5CF8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{86296E6B-4383-4DE7-8F8A-37472C88D9F8}"/>
+  <autoFilter ref="A3:B5" xr:uid="{3122B026-CAEE-47DA-8D92-F013725B5295}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C9C817B1-4520-4B37-8DB8-AE03BB7F0E1B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{05187791-18A7-43BF-AD86-1636E60F28E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDDB0C7-BE96-466D-8157-24B31015AB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC82C030-597C-4372-8C6F-8012C5A3F8F0}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>55.05</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,20 +3145,20 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>38.24</v>
+        <v>55.05</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{A2CAD866-9828-4CCD-B3B9-A3A868F95834}"/>
+  <autoFilter ref="A3:C9" xr:uid="{48E7A42B-4A60-4A91-B90D-A14FCD615864}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F5C24506-9DB3-4893-9816-FD976F49B233}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F6B3A4B1-3DF8-4FF2-9588-C17C08A11EAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6826E6-2906-4F07-A8DD-E1786D9BE04F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF6C878-49A9-4CF0-ABA4-C0C6A6461823}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>275.25</v>
+        <v>191.20000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>803.04000000000008</v>
+        <v>1156.05</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{C18F70ED-160C-41C7-86F0-5EFF1BCF3274}"/>
+  <autoFilter ref="A3:F9" xr:uid="{DC84EC39-0BC2-481B-B8FA-E618BA6CE8CD}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9BE1B611-780D-462C-85A5-3476648F9386}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{14928E40-772F-4435-9CAD-ED5FD101EF00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B3C80-319B-4466-A04C-EDB368F85940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CF8DE2-E810-43C7-AB76-9C1D3796C8FF}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3417,7 @@
         <v>10339</v>
       </c>
       <c r="F5">
-        <v>163.60860000000002</v>
+        <v>113.64928000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3497,20 +3497,20 @@
         <v>13694.02</v>
       </c>
       <c r="F9">
-        <v>477.32697600000006</v>
+        <v>687.15611999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{E418D516-9837-4AEC-AB18-14AA9F00CACA}"/>
+  <autoFilter ref="A3:F9" xr:uid="{CBA49ECA-1937-4512-A16D-DD893181E1B4}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B6D4995D-F266-411D-B743-80A5FA05F0DE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3F73E5FB-5646-44E4-B1C5-727B6E0AF576}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B0E77D-10DB-405F-BBE2-3B134E80A142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09E63E6-D115-4E3B-AA66-5AF4FDFE834F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{00D5EBFF-45EE-473D-8006-504FBD38D865}"/>
+  <autoFilter ref="A3:F9" xr:uid="{D27A6F19-BE2D-4122-9FAA-1469B063F5CC}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C83BADB9-86B2-421A-89E0-E001FBC8CCAC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E973B7BB-4849-4F15-9803-604BAAEFF43C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C61A8CA-8EF7-4518-9EC7-8A82C110A8E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDE18A6-0731-4331-8D2A-4D6DA72740F5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3853,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{C9189F0B-5D29-41CD-9EEC-31DA1A0FE011}"/>
+  <autoFilter ref="A3:F9" xr:uid="{EA350979-9AE5-4DB4-95E6-91F3EC2EC7BF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E3C6A313-FA51-4B6A-B11C-77A7A02CD66D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8AEA4C17-70D5-4DE0-BED5-2FB6EE99DAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
